--- a/ocms/src/test/resources/DownloadedFiles/Template.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
   <si>
     <t xml:space="preserve">Template Name</t>
   </si>
@@ -352,43 +352,46 @@
     <t xml:space="preserve">31/05/2021 10:47:55</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Fax</t>
+    <t xml:space="preserve">ATR Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/06/2021 10:19:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/07/2021 17:57:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/07/2021 14:57:11</t>
   </si>
   <si>
     <t xml:space="preserve">country4</t>
   </si>
   <si>
-    <t xml:space="preserve">16/06/2021 15:11:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATR Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/06/2021 10:19:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/07/2021 17:57:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/07/2021 14:57:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">facebook3</t>
   </si>
   <si>
     <t xml:space="preserve">26/07/2021 14:22:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TetherfiTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2021 14:26:38</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1840,7 @@
         <v>112</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>113</v>
@@ -1850,13 +1853,13 @@
         <v>114</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D130" t="s">
         <v>115</v>
       </c>
       <c r="E130" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>116</v>
@@ -1869,35 +1872,25 @@
         <v>117</v>
       </c>
       <c r="C131" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D131" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" x14ac:dyDescent="0.25">
       <c r="A132">
              </c>
-      <c r="B132" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" t="s">
-        <v>66</v>
-      </c>
-      <c r="D132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>121</v>
+      <c r="B132">
+             </c>
+      <c r="C132" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133" x14ac:dyDescent="0.25">
@@ -1905,36 +1898,36 @@
              </c>
       <c r="B133">
              </c>
-      <c r="C133" s="1" t="s">
-        <v>10</v>
+      <c r="C133" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="134" x14ac:dyDescent="0.25">
       <c r="A134">
              </c>
-      <c r="B134">
-             </c>
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
       <c r="C134" t="s">
-        <v>112</v>
+        <v>66</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="135" x14ac:dyDescent="0.25">
       <c r="A135">
              </c>
-      <c r="B135" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" t="s">
-        <v>66</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>123</v>
+      <c r="B135">
+             </c>
+      <c r="C135" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" x14ac:dyDescent="0.25">
@@ -1942,17 +1935,27 @@
              </c>
       <c r="B136">
              </c>
-      <c r="C136" s="1" t="s">
-        <v>10</v>
+      <c r="C136" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="137" x14ac:dyDescent="0.25">
       <c r="A137">
              </c>
-      <c r="B137">
-             </c>
+      <c r="B137" t="s">
+        <v>122</v>
+      </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>123</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
